--- a/public/excel/CONTRATOS_DE_ENERGÍA/Mercado_libre/Aif030AnálisisDeOfertaDeAutoconsumo.xlsx
+++ b/public/excel/CONTRATOS_DE_ENERGÍA/Mercado_libre/Aif030AnálisisDeOfertaDeAutoconsumo.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Codigo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="jojo" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coordenadas" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participantes" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="consumo" sheetId="4" state="visible" r:id="rId4"/>
